--- a/data/strategies/方正场外策略结果.xlsx
+++ b/data/strategies/方正场外策略结果.xlsx
@@ -18,23 +18,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="202">
   <si>
     <t>南方中证申万有色金属ETF联接A</t>
   </si>
   <si>
+    <t>港台中证生物医药ETF联结</t>
+  </si>
+  <si>
+    <t>华夏中证5G通信主题ETF联结</t>
+  </si>
+  <si>
+    <t>富国中证军工指数</t>
+  </si>
+  <si>
     <t>富国中证新能源汽车</t>
   </si>
   <si>
-    <t>华夏中证5G通信主题ETF联结</t>
-  </si>
-  <si>
-    <t>富国中证军工指数</t>
-  </si>
-  <si>
-    <t>港台中证生物医药ETF联结</t>
-  </si>
-  <si>
     <t>”双周期“配置</t>
   </si>
   <si>
@@ -65,73 +65,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>4.33%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>19.82%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>4.97%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>21.28%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>19.20%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>24.60%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>8.30%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>20.20%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>11.05%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>23.47%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>20.06%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>24.62%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -143,106 +140,106 @@
     <t>004432.OF</t>
   </si>
   <si>
+    <t>006756.OF</t>
+  </si>
+  <si>
+    <t>008086.OF</t>
+  </si>
+  <si>
+    <t>161024.OF</t>
+  </si>
+  <si>
     <t>161028.OF</t>
   </si>
   <si>
-    <t>008086.OF</t>
-  </si>
-  <si>
-    <t>161024.OF</t>
-  </si>
-  <si>
-    <t>006756.OF</t>
-  </si>
-  <si>
-    <t>-1.50%</t>
-  </si>
-  <si>
-    <t>15.09%</t>
-  </si>
-  <si>
-    <t>8.57%</t>
-  </si>
-  <si>
-    <t>4.69%</t>
-  </si>
-  <si>
-    <t>-3.80%</t>
-  </si>
-  <si>
-    <t>14.33%</t>
-  </si>
-  <si>
-    <t>41.45%</t>
-  </si>
-  <si>
-    <t>21.00%</t>
-  </si>
-  <si>
-    <t>12.01%</t>
-  </si>
-  <si>
-    <t>11.70%</t>
-  </si>
-  <si>
-    <t>11.73%</t>
-  </si>
-  <si>
-    <t>19.32%</t>
-  </si>
-  <si>
-    <t>-0.51%</t>
-  </si>
-  <si>
-    <t>-9.03%</t>
-  </si>
-  <si>
-    <t>3.32%</t>
-  </si>
-  <si>
-    <t>26.53%</t>
-  </si>
-  <si>
-    <t>38.70%</t>
-  </si>
-  <si>
-    <t>20.86%</t>
-  </si>
-  <si>
-    <t>25.29%</t>
-  </si>
-  <si>
-    <t>20.40%</t>
-  </si>
-  <si>
-    <t>29.01%</t>
-  </si>
-  <si>
-    <t>33.35%</t>
-  </si>
-  <si>
-    <t>20.41%</t>
-  </si>
-  <si>
-    <t>24.35%</t>
-  </si>
-  <si>
-    <t>21.72%</t>
-  </si>
-  <si>
-    <t>38.11%</t>
-  </si>
-  <si>
-    <t>37.32%</t>
-  </si>
-  <si>
-    <t>24.87%</t>
-  </si>
-  <si>
-    <t>32.25%</t>
-  </si>
-  <si>
-    <t>26.00%</t>
+    <t>12.18%</t>
+  </si>
+  <si>
+    <t>-3.94%</t>
+  </si>
+  <si>
+    <t>6.38%</t>
+  </si>
+  <si>
+    <t>-0.00%</t>
+  </si>
+  <si>
+    <t>24.34%</t>
+  </si>
+  <si>
+    <t>23.14%</t>
+  </si>
+  <si>
+    <t>4.04%</t>
+  </si>
+  <si>
+    <t>14.68%</t>
+  </si>
+  <si>
+    <t>7.53%</t>
+  </si>
+  <si>
+    <t>51.03%</t>
+  </si>
+  <si>
+    <t>27.53%</t>
+  </si>
+  <si>
+    <t>0.61%</t>
+  </si>
+  <si>
+    <t>-0.19%</t>
+  </si>
+  <si>
+    <t>-9.91%</t>
+  </si>
+  <si>
+    <t>37.23%</t>
+  </si>
+  <si>
+    <t>36.04%</t>
+  </si>
+  <si>
+    <t>20.04%</t>
+  </si>
+  <si>
+    <t>26.04%</t>
+  </si>
+  <si>
+    <t>32.58%</t>
+  </si>
+  <si>
+    <t>36.71%</t>
+  </si>
+  <si>
+    <t>32.11%</t>
+  </si>
+  <si>
+    <t>22.77%</t>
+  </si>
+  <si>
+    <t>22.06%</t>
+  </si>
+  <si>
+    <t>26.82%</t>
+  </si>
+  <si>
+    <t>34.11%</t>
+  </si>
+  <si>
+    <t>38.54%</t>
+  </si>
+  <si>
+    <t>25.80%</t>
+  </si>
+  <si>
+    <t>25.06%</t>
+  </si>
+  <si>
+    <t>32.80%</t>
+  </si>
+  <si>
+    <t>37.22%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -257,367 +254,376 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>002475.SZ</t>
+  </si>
+  <si>
+    <t>002179.SZ</t>
+  </si>
+  <si>
+    <t>300782.SZ</t>
+  </si>
+  <si>
+    <t>600893.SH</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
+  </si>
+  <si>
+    <t>002241.SZ</t>
+  </si>
+  <si>
+    <t>603986.SH</t>
+  </si>
+  <si>
+    <t>603259.SH</t>
   </si>
   <si>
     <t>002460.SZ</t>
   </si>
   <si>
-    <t>002179.SZ</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
+    <t>600703.SH</t>
+  </si>
+  <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>600885.SH</t>
+  </si>
+  <si>
+    <t>300122.SZ</t>
+  </si>
+  <si>
+    <t>600276.SH</t>
+  </si>
+  <si>
+    <t>002050.SZ</t>
   </si>
   <si>
     <t>002340.SZ</t>
   </si>
   <si>
-    <t>300142.SZ</t>
-  </si>
-  <si>
-    <t>600893.SH</t>
-  </si>
-  <si>
-    <t>002475.SZ</t>
-  </si>
-  <si>
-    <t>002241.SZ</t>
-  </si>
-  <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
-    <t>000063.SZ</t>
-  </si>
-  <si>
-    <t>603259.SH</t>
-  </si>
-  <si>
-    <t>300122.SZ</t>
-  </si>
-  <si>
-    <t>300782.SZ</t>
-  </si>
-  <si>
-    <t>000768.SZ</t>
+    <t>300750.SZ</t>
   </si>
   <si>
     <t>601989.SH</t>
   </si>
   <si>
-    <t>603986.SH</t>
-  </si>
-  <si>
-    <t>600703.SH</t>
-  </si>
-  <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
-    <t>600885.SH</t>
-  </si>
-  <si>
-    <t>002050.SZ</t>
-  </si>
-  <si>
-    <t>3.17%</t>
-  </si>
-  <si>
-    <t>1.97%</t>
-  </si>
-  <si>
-    <t>1.96%</t>
-  </si>
-  <si>
-    <t>1.88%</t>
-  </si>
-  <si>
-    <t>1.73%</t>
-  </si>
-  <si>
-    <t>1.68%</t>
-  </si>
-  <si>
-    <t>1.66%</t>
-  </si>
-  <si>
-    <t>1.61%</t>
-  </si>
-  <si>
-    <t>1.51%</t>
-  </si>
-  <si>
-    <t>1.47%</t>
+    <t>300450.SZ</t>
+  </si>
+  <si>
+    <t>300124.SZ</t>
+  </si>
+  <si>
+    <t>212.68%</t>
+  </si>
+  <si>
+    <t>168.06%</t>
+  </si>
+  <si>
+    <t>154.48%</t>
+  </si>
+  <si>
+    <t>149.48%</t>
+  </si>
+  <si>
+    <t>126.24%</t>
+  </si>
+  <si>
+    <t>125.82%</t>
+  </si>
+  <si>
+    <t>122.88%</t>
+  </si>
+  <si>
+    <t>109.44%</t>
+  </si>
+  <si>
+    <t>107.54%</t>
+  </si>
+  <si>
+    <t>106.02%</t>
+  </si>
+  <si>
+    <t>102.92%</t>
+  </si>
+  <si>
+    <t>101.90%</t>
+  </si>
+  <si>
+    <t>101.40%</t>
+  </si>
+  <si>
+    <t>101.36%</t>
+  </si>
+  <si>
+    <t>101.16%</t>
+  </si>
+  <si>
+    <t>101.14%</t>
+  </si>
+  <si>
+    <t>100.16%</t>
+  </si>
+  <si>
+    <t>99.04%</t>
+  </si>
+  <si>
+    <t>97.28%</t>
+  </si>
+  <si>
+    <t>96.86%</t>
+  </si>
+  <si>
+    <t>立讯精密</t>
+  </si>
+  <si>
+    <t>中航光电</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>歌尔股份</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>三安光电</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>宏发股份</t>
+  </si>
+  <si>
+    <t>智飞生物</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
+    <t>三花智控</t>
+  </si>
+  <si>
+    <t>格林美</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>中国重工</t>
+  </si>
+  <si>
+    <t>先导智能</t>
+  </si>
+  <si>
+    <t>汇川技术</t>
+  </si>
+  <si>
+    <t>消费性电子</t>
+  </si>
+  <si>
+    <t>电连接器</t>
+  </si>
+  <si>
+    <t>射频开关</t>
+  </si>
+  <si>
+    <t>航空发动机制造及衍生产品</t>
+  </si>
+  <si>
+    <t>运营商网络</t>
+  </si>
+  <si>
+    <t>智能声学整机</t>
+  </si>
+  <si>
+    <t>存储芯片销售</t>
+  </si>
+  <si>
+    <t>中国区实验室服务</t>
+  </si>
+  <si>
+    <t>锂系列产品</t>
+  </si>
+  <si>
+    <t>化合物半导体产品</t>
+  </si>
+  <si>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>继电器产品</t>
+  </si>
+  <si>
+    <t>代理产品-二类苗</t>
+  </si>
+  <si>
+    <t>抗肿瘤</t>
+  </si>
+  <si>
+    <t>空调冰箱之元器件及部件</t>
+  </si>
+  <si>
+    <t>三元材料</t>
+  </si>
+  <si>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>海洋运输装备</t>
+  </si>
+  <si>
+    <t>锂电池设备</t>
+  </si>
+  <si>
+    <t>变频器类</t>
+  </si>
+  <si>
+    <t>-18.67%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>-4.93%</t>
+  </si>
+  <si>
+    <t>2.87%</t>
+  </si>
+  <si>
+    <t>4.62%</t>
+  </si>
+  <si>
+    <t>38.13%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>65.23%</t>
+  </si>
+  <si>
+    <t>24.28%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>28.06%</t>
+  </si>
+  <si>
+    <t>20.25%</t>
+  </si>
+  <si>
+    <t>-32.63%</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>71.37%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>0.25%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>一级标签</t>
+  </si>
+  <si>
+    <t>标签占比</t>
+  </si>
+  <si>
+    <t>锂电池</t>
+  </si>
+  <si>
+    <t>国防军工</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>医药生物</t>
+  </si>
+  <si>
+    <t>通信</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
+  </si>
+  <si>
+    <t>电气设备</t>
+  </si>
+  <si>
+    <t>生物制品</t>
+  </si>
+  <si>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>6.82%</t>
+  </si>
+  <si>
+    <t>5.58%</t>
+  </si>
+  <si>
+    <t>4.54%</t>
+  </si>
+  <si>
+    <t>3.72%</t>
+  </si>
+  <si>
+    <t>2.82%</t>
+  </si>
+  <si>
+    <t>1.69%</t>
+  </si>
+  <si>
+    <t>1.42%</t>
+  </si>
+  <si>
+    <t>1.37%</t>
   </si>
   <si>
     <t>1.36%</t>
   </si>
   <si>
-    <t>1.26%</t>
-  </si>
-  <si>
-    <t>1.19%</t>
-  </si>
-  <si>
-    <t>1.13%</t>
-  </si>
-  <si>
-    <t>1.11%</t>
-  </si>
-  <si>
-    <t>1.08%</t>
-  </si>
-  <si>
-    <t>1.07%</t>
-  </si>
-  <si>
-    <t>1.03%</t>
-  </si>
-  <si>
-    <t>1.02%</t>
-  </si>
-  <si>
-    <t>1.01%</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>中航光电</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>格林美</t>
-  </si>
-  <si>
-    <t>沃森生物</t>
-  </si>
-  <si>
-    <t>航发动力</t>
-  </si>
-  <si>
-    <t>立讯精密</t>
-  </si>
-  <si>
-    <t>歌尔股份</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>中兴通讯</t>
-  </si>
-  <si>
-    <t>药明康德</t>
-  </si>
-  <si>
-    <t>智飞生物</t>
-  </si>
-  <si>
-    <t>卓胜微</t>
-  </si>
-  <si>
-    <t>中航西飞</t>
-  </si>
-  <si>
-    <t>中国重工</t>
-  </si>
-  <si>
-    <t>兆易创新</t>
-  </si>
-  <si>
-    <t>三安光电</t>
-  </si>
-  <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
-    <t>宏发股份</t>
-  </si>
-  <si>
-    <t>三花智控</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>电连接器</t>
-  </si>
-  <si>
-    <t>加工、冶炼及贸易金</t>
-  </si>
-  <si>
-    <t>三元材料</t>
-  </si>
-  <si>
-    <t>13价肺炎球菌多糖结合疫苗(预充注射剂)</t>
-  </si>
-  <si>
-    <t>航空发动机制造及衍生产品</t>
-  </si>
-  <si>
-    <t>消费性电子</t>
-  </si>
-  <si>
-    <t>智能声学整机</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>运营商网络</t>
-  </si>
-  <si>
-    <t>中国区实验室服务</t>
-  </si>
-  <si>
-    <t>代理产品-二类苗</t>
-  </si>
-  <si>
-    <t>射频开关</t>
-  </si>
-  <si>
-    <t>航空产品</t>
-  </si>
-  <si>
-    <t>海洋运输装备</t>
-  </si>
-  <si>
-    <t>存储芯片销售</t>
-  </si>
-  <si>
-    <t>化合物半导体产品</t>
-  </si>
-  <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
-    <t>继电器产品</t>
-  </si>
-  <si>
-    <t>空调冰箱之元器件及部件</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>6.67%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
-  </si>
-  <si>
-    <t>69.93%</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>-15.69%</t>
-  </si>
-  <si>
-    <t>16.65%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>-0.15%</t>
-  </si>
-  <si>
-    <t>44.35%</t>
-  </si>
-  <si>
-    <t>26.92%</t>
-  </si>
-  <si>
-    <t>60.36%</t>
-  </si>
-  <si>
-    <t>-21.93%</t>
-  </si>
-  <si>
-    <t>0.25%</t>
-  </si>
-  <si>
-    <t>28.48%</t>
-  </si>
-  <si>
-    <t>17.00%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
-  </si>
-  <si>
-    <t>13.98%</t>
-  </si>
-  <si>
-    <t>0.16%</t>
-  </si>
-  <si>
-    <t>一级标签</t>
-  </si>
-  <si>
-    <t>标签占比</t>
-  </si>
-  <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>军工</t>
-  </si>
-  <si>
-    <t>医药生物</t>
-  </si>
-  <si>
-    <t>电子</t>
-  </si>
-  <si>
-    <t>集成电路</t>
-  </si>
-  <si>
-    <t>有色金属</t>
-  </si>
-  <si>
-    <t>通信</t>
-  </si>
-  <si>
-    <t>电气设备</t>
-  </si>
-  <si>
-    <t>家电家具</t>
-  </si>
-  <si>
-    <t>25.38%</t>
-  </si>
-  <si>
-    <t>19.70%</t>
-  </si>
-  <si>
-    <t>14.55%</t>
-  </si>
-  <si>
-    <t>14.52%</t>
-  </si>
-  <si>
-    <t>7.59%</t>
-  </si>
-  <si>
-    <t>6.56%</t>
-  </si>
-  <si>
-    <t>4.92%</t>
-  </si>
-  <si>
-    <t>3.41%</t>
-  </si>
-  <si>
-    <t>3.38%</t>
+    <t>1.30%</t>
   </si>
 </sst>
 </file>
@@ -981,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1053,19 +1059,19 @@
         <v>1.053925925925926</v>
       </c>
       <c r="C3">
-        <v>1.067860508953817</v>
+        <v>0.9953036260375711</v>
       </c>
       <c r="D3">
         <v>1.01255620598965</v>
       </c>
       <c r="E3">
-        <v>1.062350119904077</v>
+        <v>1.062381554011371</v>
       </c>
       <c r="F3">
-        <v>0.9953036260375711</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="G3">
-        <v>1.038399277362208</v>
+        <v>1.038395927621314</v>
       </c>
       <c r="H3">
         <v>1.018168368380631</v>
@@ -1082,19 +1088,19 @@
         <v>1.065283950617284</v>
       </c>
       <c r="C4">
-        <v>1.074458058435438</v>
+        <v>1.002129750982962</v>
       </c>
       <c r="D4">
         <v>1.048697717824722</v>
       </c>
       <c r="E4">
-        <v>1.071143085531575</v>
+        <v>1.071172878500737</v>
       </c>
       <c r="F4">
-        <v>1.002129750982962</v>
+        <v>1.07442665512765</v>
       </c>
       <c r="G4">
-        <v>1.052342512678396</v>
+        <v>1.052342190610671</v>
       </c>
       <c r="H4">
         <v>1.027111201157197</v>
@@ -1111,19 +1117,19 @@
         <v>1.070320987654321</v>
       </c>
       <c r="C5">
-        <v>1.05937794533459</v>
+        <v>1.027522935779817</v>
       </c>
       <c r="D5">
         <v>1.029524051921608</v>
       </c>
       <c r="E5">
-        <v>1.087130295763389</v>
+        <v>1.087123604969467</v>
       </c>
       <c r="F5">
-        <v>1.027522935779817</v>
+        <v>1.05934351239414</v>
       </c>
       <c r="G5">
-        <v>1.054775243290745</v>
+        <v>1.054767018543871</v>
       </c>
       <c r="H5">
         <v>1.025290909062353</v>
@@ -1140,19 +1146,19 @@
         <v>1.109135802469136</v>
       </c>
       <c r="C6">
-        <v>1.086710650329878</v>
+        <v>1.020587592835299</v>
       </c>
       <c r="D6">
         <v>1.026809196572495</v>
       </c>
       <c r="E6">
-        <v>1.112709832134293</v>
+        <v>1.112707938513371</v>
       </c>
       <c r="F6">
-        <v>1.020587592835299</v>
+        <v>1.086666254558942</v>
       </c>
       <c r="G6">
-        <v>1.07119061486822</v>
+        <v>1.071181356989849</v>
       </c>
       <c r="H6">
         <v>1.026858339183711</v>
@@ -1169,19 +1175,19 @@
         <v>1.105481481481482</v>
       </c>
       <c r="C7">
-        <v>1.077285579641847</v>
+        <v>1.034458278724334</v>
       </c>
       <c r="D7">
         <v>1.043013489437516</v>
       </c>
       <c r="E7">
-        <v>1.084732214228617</v>
+        <v>1.084754685196884</v>
       </c>
       <c r="F7">
-        <v>1.034458278724334</v>
+        <v>1.07727019842987</v>
       </c>
       <c r="G7">
-        <v>1.068994208702759</v>
+        <v>1.068995626654017</v>
       </c>
       <c r="H7">
         <v>1.029917812005761</v>
@@ -1198,19 +1204,19 @@
         <v>1.064395061728395</v>
       </c>
       <c r="C8">
-        <v>1.04052780395853</v>
+        <v>1.022990388816077</v>
       </c>
       <c r="D8">
         <v>1.058878425383897</v>
       </c>
       <c r="E8">
-        <v>1.051159072741807</v>
+        <v>1.051168667087808</v>
       </c>
       <c r="F8">
-        <v>1.022990388816077</v>
+        <v>1.040489583977252</v>
       </c>
       <c r="G8">
-        <v>1.047590150525741</v>
+        <v>1.047584425398686</v>
       </c>
       <c r="H8">
         <v>1.013866573688848</v>
@@ -1227,19 +1233,19 @@
         <v>1.087012345679012</v>
       </c>
       <c r="C9">
-        <v>1.063147973609802</v>
+        <v>1.035878112712975</v>
       </c>
       <c r="D9">
         <v>1.069992364469331</v>
       </c>
       <c r="E9">
-        <v>1.091127098321343</v>
+        <v>1.091124447252053</v>
       </c>
       <c r="F9">
-        <v>1.035878112712975</v>
+        <v>1.063114298077517</v>
       </c>
       <c r="G9">
-        <v>1.069431578958493</v>
+        <v>1.069424313638178</v>
       </c>
       <c r="H9">
         <v>1.027660901099557</v>
@@ -1256,19 +1262,19 @@
         <v>1.054716049382716</v>
       </c>
       <c r="C10">
-        <v>1.032045240339303</v>
+        <v>1.020259938837921</v>
       </c>
       <c r="D10">
         <v>1.085942139645372</v>
       </c>
       <c r="E10">
-        <v>1.075939248601119</v>
+        <v>1.075963360707517</v>
       </c>
       <c r="F10">
-        <v>1.020259938837921</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="G10">
-        <v>1.053780523361286</v>
+        <v>1.053780451760573</v>
       </c>
       <c r="H10">
         <v>1.020386015005238</v>
@@ -1285,19 +1291,19 @@
         <v>1.036444444444445</v>
       </c>
       <c r="C11">
-        <v>1.005655042412818</v>
+        <v>1.012833114897335</v>
       </c>
       <c r="D11">
         <v>1.083312123525918</v>
       </c>
       <c r="E11">
-        <v>1.018385291766587</v>
+        <v>1.018372288902927</v>
       </c>
       <c r="F11">
-        <v>1.012833114897335</v>
+        <v>1.005625270445694</v>
       </c>
       <c r="G11">
-        <v>1.031326003409421</v>
+        <v>1.031317448443264</v>
       </c>
       <c r="H11">
         <v>1.011430617658561</v>
@@ -1314,19 +1320,19 @@
         <v>1.045925925925926</v>
       </c>
       <c r="C12">
-        <v>1.02827521206409</v>
+        <v>1.00802752293578</v>
       </c>
       <c r="D12">
         <v>1.059557139221176</v>
       </c>
       <c r="E12">
-        <v>1.01119104716227</v>
+        <v>1.011212886923563</v>
       </c>
       <c r="F12">
-        <v>1.00802752293578</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="G12">
-        <v>1.030595369461849</v>
+        <v>1.030594691910481</v>
       </c>
       <c r="H12">
         <v>1.007914108598721</v>
@@ -1343,19 +1349,19 @@
         <v>1.060938271604938</v>
       </c>
       <c r="C13">
-        <v>1.034872761545712</v>
+        <v>1.012013979903888</v>
       </c>
       <c r="D13">
         <v>1.095868329515568</v>
       </c>
       <c r="E13">
-        <v>1.031175059952038</v>
+        <v>1.031164455674879</v>
       </c>
       <c r="F13">
-        <v>1.012013979903888</v>
+        <v>1.034864313531557</v>
       </c>
       <c r="G13">
-        <v>1.046973680504429</v>
+        <v>1.046969870046166</v>
       </c>
       <c r="H13">
         <v>1.023142367573358</v>
@@ -1372,19 +1378,19 @@
         <v>1.025975308641975</v>
       </c>
       <c r="C14">
-        <v>1.008482563619227</v>
+        <v>0.9958497160332024</v>
       </c>
       <c r="D14">
         <v>1.074997879019258</v>
       </c>
       <c r="E14">
-        <v>1.009592326139089</v>
+        <v>1.009580964413561</v>
       </c>
       <c r="F14">
-        <v>0.9958497160332024</v>
+        <v>1.008468813747914</v>
       </c>
       <c r="G14">
-        <v>1.02297955869055</v>
+        <v>1.022974536371182</v>
       </c>
       <c r="H14">
         <v>1.017160061629216</v>
@@ -1401,19 +1407,19 @@
         <v>1.05441975308642</v>
       </c>
       <c r="C15">
-        <v>1.051837888784166</v>
+        <v>1.016164263870686</v>
       </c>
       <c r="D15">
         <v>1.076355306693815</v>
       </c>
       <c r="E15">
-        <v>1.028776978417266</v>
+        <v>1.028795535902295</v>
       </c>
       <c r="F15">
-        <v>1.016164263870686</v>
+        <v>1.051801941027385</v>
       </c>
       <c r="G15">
-        <v>1.045510838170471</v>
+        <v>1.04550736011612</v>
       </c>
       <c r="H15">
         <v>1.026434284942462</v>
@@ -1430,19 +1436,19 @@
         <v>1.089777777777778</v>
       </c>
       <c r="C16">
-        <v>1.073515551366635</v>
+        <v>1.045380078636959</v>
       </c>
       <c r="D16">
         <v>1.076185628234495</v>
       </c>
       <c r="E16">
-        <v>1.037569944044764</v>
+        <v>1.037586860391661</v>
       </c>
       <c r="F16">
-        <v>1.045380078636959</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="G16">
-        <v>1.064485796012127</v>
+        <v>1.064485951557477</v>
       </c>
       <c r="H16">
         <v>1.04011081950838</v>
@@ -1459,19 +1465,19 @@
         <v>1.099555555555556</v>
       </c>
       <c r="C17">
-        <v>1.100848256361923</v>
+        <v>1.092726081258191</v>
       </c>
       <c r="D17">
         <v>1.054297106982268</v>
       </c>
       <c r="E17">
-        <v>1.039968025579536</v>
+        <v>1.039955780164245</v>
       </c>
       <c r="F17">
-        <v>1.092726081258191</v>
+        <v>1.100822154911294</v>
       </c>
       <c r="G17">
-        <v>1.077479005147495</v>
+        <v>1.077471335774311</v>
       </c>
       <c r="H17">
         <v>1.042515364113389</v>
@@ -1488,19 +1494,19 @@
         <v>1.114567901234568</v>
       </c>
       <c r="C18">
-        <v>1.098020735155514</v>
+        <v>1.081039755351682</v>
       </c>
       <c r="D18">
         <v>1.035377958768134</v>
       </c>
       <c r="E18">
-        <v>1.040767386091127</v>
+        <v>1.040798062750053</v>
       </c>
       <c r="F18">
-        <v>1.081039755351682</v>
+        <v>1.097978611609075</v>
       </c>
       <c r="G18">
-        <v>1.073954747320205</v>
+        <v>1.073952457942702</v>
       </c>
       <c r="H18">
         <v>1.043693292561303</v>
@@ -1517,19 +1523,19 @@
         <v>1.095308641975309</v>
       </c>
       <c r="C19">
-        <v>1.067860508953817</v>
+        <v>1.051660113586719</v>
       </c>
       <c r="D19">
         <v>1.011622974463392</v>
       </c>
       <c r="E19">
-        <v>0.9760191846522783</v>
+        <v>0.9760475889660982</v>
       </c>
       <c r="F19">
-        <v>1.051660113586719</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="G19">
-        <v>1.040494284726303</v>
+        <v>1.040490329026714</v>
       </c>
       <c r="H19">
         <v>1.026047924411546</v>
@@ -1546,19 +1552,19 @@
         <v>1.088987654320988</v>
       </c>
       <c r="C20">
-        <v>1.073515551366635</v>
+        <v>1.042103538663172</v>
       </c>
       <c r="D20">
         <v>1.014846865190464</v>
       </c>
       <c r="E20">
-        <v>0.9736211031175059</v>
+        <v>0.9736260265319014</v>
       </c>
       <c r="F20">
-        <v>1.042103538663172</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="G20">
-        <v>1.038614942531753</v>
+        <v>1.038612699490603</v>
       </c>
       <c r="H20">
         <v>1.02984870687015</v>
@@ -1575,19 +1581,19 @@
         <v>1.051160493827161</v>
       </c>
       <c r="C21">
-        <v>1.033930254476909</v>
+        <v>1.010594145915247</v>
       </c>
       <c r="D21">
         <v>0.9752269449393398</v>
       </c>
       <c r="E21">
-        <v>0.9608313349320544</v>
+        <v>0.9608338597599495</v>
       </c>
       <c r="F21">
-        <v>1.010594145915247</v>
+        <v>1.033875254991655</v>
       </c>
       <c r="G21">
-        <v>1.006348634818142</v>
+        <v>1.00633813988667</v>
       </c>
       <c r="H21">
         <v>1.007424090364388</v>
@@ -1604,19 +1610,19 @@
         <v>1.039111111111111</v>
       </c>
       <c r="C22">
-        <v>1.015080113100848</v>
+        <v>0.9966688510266491</v>
       </c>
       <c r="D22">
         <v>0.9694578773224739</v>
       </c>
       <c r="E22">
-        <v>0.932853717026379</v>
+        <v>0.9328806064434618</v>
       </c>
       <c r="F22">
-        <v>0.9966688510266491</v>
+        <v>1.015021326574767</v>
       </c>
       <c r="G22">
-        <v>0.9906343339174923</v>
+        <v>0.9906279544956926</v>
       </c>
       <c r="H22">
         <v>0.9967065120596316</v>
@@ -1633,19 +1639,19 @@
         <v>1.05037037037037</v>
       </c>
       <c r="C23">
-        <v>1.016022620169651</v>
+        <v>1.016546526867628</v>
       </c>
       <c r="D23">
         <v>0.9729362857385254</v>
       </c>
       <c r="E23">
-        <v>0.9280575539568345</v>
+        <v>0.9280374815750684</v>
       </c>
       <c r="F23">
-        <v>1.016546526867628</v>
+        <v>1.016010385114669</v>
       </c>
       <c r="G23">
-        <v>0.996786671420602</v>
+        <v>0.9967802099332522</v>
       </c>
       <c r="H23">
         <v>1.004110184997589</v>
@@ -1662,19 +1668,19 @@
         <v>1.079506172839506</v>
       </c>
       <c r="C24">
-        <v>1.057492931196984</v>
+        <v>1.028615115771079</v>
       </c>
       <c r="D24">
         <v>0.9825231186900821</v>
       </c>
       <c r="E24">
-        <v>0.9424460431654677</v>
+        <v>0.9424615708570225</v>
       </c>
       <c r="F24">
-        <v>1.028615115771079</v>
+        <v>1.057489027631823</v>
       </c>
       <c r="G24">
-        <v>1.018116676332624</v>
+        <v>1.018119001157903</v>
       </c>
       <c r="H24">
         <v>1.013770768841751</v>
@@ -1691,19 +1697,19 @@
         <v>1.085037037037037</v>
       </c>
       <c r="C25">
-        <v>1.054665409990575</v>
+        <v>1.035168195718654</v>
       </c>
       <c r="D25">
         <v>0.956986510562484</v>
       </c>
       <c r="E25">
-        <v>0.9136690647482015</v>
+        <v>0.9136660349547273</v>
       </c>
       <c r="F25">
-        <v>1.035168195718654</v>
+        <v>1.054645484329604</v>
       </c>
       <c r="G25">
-        <v>1.00910524361139</v>
+        <v>1.009100652520501</v>
       </c>
       <c r="H25">
         <v>1.00506038061224</v>
@@ -1720,19 +1726,19 @@
         <v>1.041679012345679</v>
       </c>
       <c r="C26">
-        <v>1.0311027332705</v>
+        <v>1.026212319790301</v>
       </c>
       <c r="D26">
         <v>0.945448375328752</v>
       </c>
       <c r="E26">
-        <v>0.9024780175859313</v>
+        <v>0.9025057906927774</v>
       </c>
       <c r="F26">
-        <v>1.026212319790301</v>
+        <v>1.031093527848179</v>
       </c>
       <c r="G26">
-        <v>0.9893840916642327</v>
+        <v>0.9893878052011378</v>
       </c>
       <c r="H26">
         <v>0.9939815709167896</v>
@@ -1749,19 +1755,19 @@
         <v>0.992888888888889</v>
       </c>
       <c r="C27">
-        <v>1.002827521206409</v>
+        <v>1.042158147662735</v>
       </c>
       <c r="D27">
         <v>0.9279714940188344</v>
       </c>
       <c r="E27">
-        <v>0.8856914468425261</v>
+        <v>0.8857127816382397</v>
       </c>
       <c r="F27">
-        <v>1.042158147662735</v>
+        <v>1.002781727143475</v>
       </c>
       <c r="G27">
-        <v>0.9703074997238788</v>
+        <v>0.9703026078704348</v>
       </c>
       <c r="H27">
         <v>0.9800160512383169</v>
@@ -1778,19 +1784,19 @@
         <v>1.030518518518519</v>
       </c>
       <c r="C28">
-        <v>1.019792648444863</v>
+        <v>1.051823940585408</v>
       </c>
       <c r="D28">
         <v>0.9302621532196488</v>
       </c>
       <c r="E28">
-        <v>0.8880895283772982</v>
+        <v>0.8880817014108234</v>
       </c>
       <c r="F28">
-        <v>1.051823940585408</v>
+        <v>1.019781170798047</v>
       </c>
       <c r="G28">
-        <v>0.9840973578291475</v>
+        <v>0.9840934969064892</v>
       </c>
       <c r="H28">
         <v>0.9930973392952219</v>
@@ -1807,19 +1813,19 @@
         <v>1.078518518518519</v>
       </c>
       <c r="C29">
-        <v>1.04995287464656</v>
+        <v>1.066950633464395</v>
       </c>
       <c r="D29">
         <v>0.9490964622041231</v>
       </c>
       <c r="E29">
-        <v>0.935251798561151</v>
+        <v>0.9352495262160455</v>
       </c>
       <c r="F29">
-        <v>1.066950633464395</v>
+        <v>1.049947456265068</v>
       </c>
       <c r="G29">
-        <v>1.01595405747895</v>
+        <v>1.01595251933363</v>
       </c>
       <c r="H29">
         <v>1.014256075362292</v>
@@ -1836,19 +1842,19 @@
         <v>1.106172839506173</v>
       </c>
       <c r="C30">
-        <v>1.062205466540999</v>
+        <v>1.105286151157711</v>
       </c>
       <c r="D30">
         <v>0.9685246457962161</v>
       </c>
       <c r="E30">
-        <v>0.9312549960031975</v>
+        <v>0.9312486839334596</v>
       </c>
       <c r="F30">
-        <v>1.105286151157711</v>
+        <v>1.062187055696359</v>
       </c>
       <c r="G30">
-        <v>1.034688819800859</v>
+        <v>1.034683875217984</v>
       </c>
       <c r="H30">
         <v>1.024824449396979</v>
@@ -1865,19 +1871,19 @@
         <v>1.177382716049383</v>
       </c>
       <c r="C31">
-        <v>1.039585296889727</v>
+        <v>1.053134556574924</v>
       </c>
       <c r="D31">
         <v>0.971494018834309</v>
       </c>
       <c r="E31">
-        <v>0.9256594724220623</v>
+        <v>0.9256685618024847</v>
       </c>
       <c r="F31">
-        <v>1.053134556574924</v>
+        <v>1.039562341596093</v>
       </c>
       <c r="G31">
-        <v>1.033451212154081</v>
+        <v>1.033448438971439</v>
       </c>
       <c r="H31">
         <v>1.038860644782327</v>
@@ -1894,19 +1900,19 @@
         <v>1.193679012345679</v>
       </c>
       <c r="C32">
-        <v>1.024505183788878</v>
+        <v>1.045543905635649</v>
       </c>
       <c r="D32">
         <v>0.9800627810299481</v>
       </c>
       <c r="E32">
-        <v>0.9280575539568345</v>
+        <v>0.9280374815750684</v>
       </c>
       <c r="F32">
-        <v>1.045543905635649</v>
+        <v>1.024479198862583</v>
       </c>
       <c r="G32">
-        <v>1.034369687351398</v>
+        <v>1.034360475889785</v>
       </c>
       <c r="H32">
         <v>1.052829305603327</v>
@@ -1923,19 +1929,19 @@
         <v>1.248592592592593</v>
       </c>
       <c r="C33">
-        <v>1.007540056550424</v>
+        <v>1.018130187854958</v>
       </c>
       <c r="D33">
         <v>0.959107491303979</v>
       </c>
       <c r="E33">
-        <v>0.8992805755395684</v>
+        <v>0.8992945883343861</v>
       </c>
       <c r="F33">
-        <v>1.018130187854958</v>
+        <v>1.007479755208011</v>
       </c>
       <c r="G33">
-        <v>1.026530180768304</v>
+        <v>1.026520923058786</v>
       </c>
       <c r="H33">
         <v>1.045538713796369</v>
@@ -1952,19 +1958,19 @@
         <v>1.233283950617284</v>
       </c>
       <c r="C34">
-        <v>0.9896324222431668</v>
+        <v>1.018840104849279</v>
       </c>
       <c r="D34">
         <v>0.9561381182658861</v>
       </c>
       <c r="E34">
-        <v>0.9224620303756994</v>
+        <v>0.9224573594440935</v>
       </c>
       <c r="F34">
-        <v>1.018840104849279</v>
+        <v>0.9896148853310256</v>
       </c>
       <c r="G34">
-        <v>1.024071325270263</v>
+        <v>1.024066883701514</v>
       </c>
       <c r="H34">
         <v>1.041481928221752</v>
@@ -1981,19 +1987,19 @@
         <v>1.182617283950617</v>
       </c>
       <c r="C35">
-        <v>0.9547596606974551</v>
+        <v>0.9934469200524246</v>
       </c>
       <c r="D35">
         <v>0.9575803851701026</v>
       </c>
       <c r="E35">
-        <v>0.9224620303756994</v>
+        <v>0.9224573594440935</v>
       </c>
       <c r="F35">
-        <v>0.9934469200524246</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="G35">
-        <v>1.00217325604926</v>
+        <v>1.002170504083341</v>
       </c>
       <c r="H35">
         <v>1.026555218929781</v>
@@ -2010,19 +2016,19 @@
         <v>1.170172839506173</v>
       </c>
       <c r="C36">
-        <v>0.9377945334590009</v>
+        <v>0.9901157710790738</v>
       </c>
       <c r="D36">
         <v>0.9523203529311953</v>
       </c>
       <c r="E36">
-        <v>0.9392486011191048</v>
+        <v>0.9392503684986313</v>
       </c>
       <c r="F36">
-        <v>0.9901157710790738</v>
+        <v>0.937751128144897</v>
       </c>
       <c r="G36">
-        <v>0.9979304196189096</v>
+        <v>0.9979220920319941</v>
       </c>
       <c r="H36">
         <v>1.020737822968348</v>
@@ -2039,19 +2045,19 @@
         <v>1.12079012345679</v>
       </c>
       <c r="C37">
-        <v>0.9180018850141376</v>
+        <v>0.9837265181301879</v>
       </c>
       <c r="D37">
         <v>0.9447696614914736</v>
       </c>
       <c r="E37">
-        <v>0.9096722621902478</v>
+        <v>0.9096651926721415</v>
       </c>
       <c r="F37">
-        <v>0.9837265181301879</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="G37">
-        <v>0.9753920900565675</v>
+        <v>0.9753842906194888</v>
       </c>
       <c r="H37">
         <v>0.9995665223311676</v>
@@ -2068,19 +2074,19 @@
         <v>1.159308641975309</v>
       </c>
       <c r="C38">
-        <v>0.9538171536286523</v>
+        <v>0.9968872870249017</v>
       </c>
       <c r="D38">
         <v>0.9674217358106388</v>
       </c>
       <c r="E38">
-        <v>0.9248601119104717</v>
+        <v>0.9248789218782901</v>
       </c>
       <c r="F38">
-        <v>0.9968872870249017</v>
+        <v>0.953761513259566</v>
       </c>
       <c r="G38">
-        <v>1.000458986069995</v>
+        <v>1.000451619989741</v>
       </c>
       <c r="H38">
         <v>1.019055741144727</v>
@@ -2097,19 +2103,19 @@
         <v>1.122864197530864</v>
       </c>
       <c r="C39">
-        <v>0.9575871819038644</v>
+        <v>0.9799038881607689</v>
       </c>
       <c r="D39">
         <v>0.972257571901247</v>
       </c>
       <c r="E39">
-        <v>0.9304556354916067</v>
+        <v>0.9304590440092652</v>
       </c>
       <c r="F39">
-        <v>0.9799038881607689</v>
+        <v>0.9575322989429437</v>
       </c>
       <c r="G39">
-        <v>0.9926136949976703</v>
+        <v>0.9926034001090178</v>
       </c>
       <c r="H39">
         <v>1.010400322909452</v>
@@ -2126,19 +2132,19 @@
         <v>1.161975308641976</v>
       </c>
       <c r="C40">
-        <v>0.9651272384542884</v>
+        <v>0.992682394058541</v>
       </c>
       <c r="D40">
         <v>0.9766692118435564</v>
       </c>
       <c r="E40">
-        <v>0.9288569144684253</v>
+        <v>0.9288797641608759</v>
       </c>
       <c r="F40">
-        <v>0.992682394058541</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="G40">
-        <v>1.005062213493357</v>
+        <v>1.00505610980293</v>
       </c>
       <c r="H40">
         <v>1.024758485403896</v>
@@ -2155,19 +2161,19 @@
         <v>1.119012345679012</v>
       </c>
       <c r="C41">
-        <v>0.9180018850141376</v>
+        <v>0.9588248143294016</v>
       </c>
       <c r="D41">
         <v>0.9419699669127004</v>
       </c>
       <c r="E41">
-        <v>0.9176658673061551</v>
+        <v>0.9176668772373132</v>
       </c>
       <c r="F41">
-        <v>0.9588248143294016</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="G41">
-        <v>0.9710949758482814</v>
+        <v>0.9710887923010557</v>
       </c>
       <c r="H41">
         <v>1.005478152568434</v>
@@ -2184,19 +2190,19 @@
         <v>1.084641975308642</v>
       </c>
       <c r="C42">
-        <v>0.9245994344957587</v>
+        <v>0.9660878112712975</v>
       </c>
       <c r="D42">
         <v>0.9534232629167726</v>
       </c>
       <c r="E42">
-        <v>0.9000799360511591</v>
+        <v>0.9000842282585808</v>
       </c>
       <c r="F42">
-        <v>0.9660878112712975</v>
+        <v>0.9245842863324474</v>
       </c>
       <c r="G42">
-        <v>0.9657664840087261</v>
+        <v>0.9657643128175482</v>
       </c>
       <c r="H42">
         <v>1.005715308829281</v>
@@ -2213,19 +2219,19 @@
         <v>1.056197530864198</v>
       </c>
       <c r="C43">
-        <v>0.8812441093308201</v>
+        <v>0.935998252512014</v>
       </c>
       <c r="D43">
         <v>0.927632137100195</v>
       </c>
       <c r="E43">
-        <v>0.8441247002398082</v>
+        <v>0.8441250789639924</v>
       </c>
       <c r="F43">
-        <v>0.935998252512014</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="G43">
-        <v>0.9290393460094071</v>
+        <v>0.9290284684669263</v>
       </c>
       <c r="H43">
         <v>0.9826137761087841</v>
@@ -2242,19 +2248,19 @@
         <v>1.04</v>
       </c>
       <c r="C44">
-        <v>0.8671065032987748</v>
+        <v>0.9020860637833115</v>
       </c>
       <c r="D44">
         <v>0.8960719436667515</v>
       </c>
       <c r="E44">
-        <v>0.8025579536370904</v>
+        <v>0.8025373762897452</v>
       </c>
       <c r="F44">
-        <v>0.9020860637833115</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="G44">
-        <v>0.9015644928771858</v>
+        <v>0.9015581284880865</v>
       </c>
       <c r="H44">
         <v>0.9593049279814547</v>
@@ -2271,19 +2277,19 @@
         <v>1.039012345679012</v>
       </c>
       <c r="C45">
-        <v>0.8821866163996231</v>
+        <v>0.9068916557448669</v>
       </c>
       <c r="D45">
         <v>0.8880970560787307</v>
       </c>
       <c r="E45">
-        <v>0.7977617905675459</v>
+        <v>0.7977468940829648</v>
       </c>
       <c r="F45">
-        <v>0.9068916557448669</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="G45">
-        <v>0.9027898928939558</v>
+        <v>0.902785270603942</v>
       </c>
       <c r="H45">
         <v>0.952121135020441</v>
@@ -2300,19 +2306,19 @@
         <v>1.099950617283951</v>
       </c>
       <c r="C46">
-        <v>0.9066918001885014</v>
+        <v>0.922346002621232</v>
       </c>
       <c r="D46">
         <v>0.8970900144226689</v>
       </c>
       <c r="E46">
-        <v>0.8105515587529977</v>
+        <v>0.8105390608549169</v>
       </c>
       <c r="F46">
-        <v>0.922346002621232</v>
+        <v>0.9066576002967175</v>
       </c>
       <c r="G46">
-        <v>0.9273259986538702</v>
+        <v>0.9273166590958972</v>
       </c>
       <c r="H46">
         <v>0.9759262836671583</v>
@@ -2329,19 +2335,19 @@
         <v>1.087901234567901</v>
       </c>
       <c r="C47">
-        <v>0.9132893496701224</v>
+        <v>0.9228374836173001</v>
       </c>
       <c r="D47">
         <v>0.8822431492322049</v>
       </c>
       <c r="E47">
-        <v>0.8049560351718624</v>
+        <v>0.8049589387239419</v>
       </c>
       <c r="F47">
-        <v>0.9228374836173001</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="G47">
-        <v>0.9222454504518782</v>
+        <v>0.9222425470847325</v>
       </c>
       <c r="H47">
         <v>0.9772691220977807</v>
@@ -2358,19 +2364,19 @@
         <v>1.089876543209876</v>
       </c>
       <c r="C48">
-        <v>0.889726672950047</v>
+        <v>0.8999017038007864</v>
       </c>
       <c r="D48">
         <v>0.8474590650716891</v>
       </c>
       <c r="E48">
-        <v>0.8001598721023181</v>
+        <v>0.8001684565171615</v>
       </c>
       <c r="F48">
-        <v>0.8999017038007864</v>
+        <v>0.8897199728008902</v>
       </c>
       <c r="G48">
-        <v>0.9054247714269434</v>
+        <v>0.9054251482800808</v>
       </c>
       <c r="H48">
         <v>0.9696502808966706</v>
@@ -2387,19 +2393,19 @@
         <v>1.068246913580247</v>
       </c>
       <c r="C49">
-        <v>0.8906691800188501</v>
+        <v>0.9131170816950633</v>
       </c>
       <c r="D49">
         <v>0.8455077627895139</v>
       </c>
       <c r="E49">
-        <v>0.7985611510791367</v>
+        <v>0.7985891766687724</v>
       </c>
       <c r="F49">
-        <v>0.9131170816950633</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="G49">
-        <v>0.9032204178325622</v>
+        <v>0.903221629983129</v>
       </c>
       <c r="H49">
         <v>0.9730065916875945</v>
@@ -2416,19 +2422,19 @@
         <v>1.074172839506173</v>
       </c>
       <c r="C50">
-        <v>0.9123468426013195</v>
+        <v>0.9166120576671036</v>
       </c>
       <c r="D50">
         <v>0.8577246118605242</v>
       </c>
       <c r="E50">
-        <v>0.8113509192645882</v>
+        <v>0.8113813434407243</v>
       </c>
       <c r="F50">
-        <v>0.9166120576671036</v>
+        <v>0.912344686901156</v>
       </c>
       <c r="G50">
-        <v>0.9144414541799417</v>
+        <v>0.9144471078751362</v>
       </c>
       <c r="H50">
         <v>0.9777371523344186</v>
@@ -2445,19 +2451,19 @@
         <v>1.074271604938271</v>
       </c>
       <c r="C51">
-        <v>0.9132893496701224</v>
+        <v>0.9333224115334208</v>
       </c>
       <c r="D51">
         <v>0.8532281326885551</v>
       </c>
       <c r="E51">
-        <v>0.8201438848920863</v>
+        <v>0.8201726679300906</v>
       </c>
       <c r="F51">
-        <v>0.9333224115334208</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="G51">
-        <v>0.9188510767444913</v>
+        <v>0.9188533492745306</v>
       </c>
       <c r="H51">
         <v>0.9853544229642648</v>
@@ -2474,19 +2480,19 @@
         <v>1.053037037037037</v>
       </c>
       <c r="C52">
-        <v>0.8850141376060321</v>
+        <v>0.9251856705985146</v>
       </c>
       <c r="D52">
         <v>0.8342241452447611</v>
       </c>
       <c r="E52">
-        <v>0.8249400479616308</v>
+        <v>0.8249631501368709</v>
       </c>
       <c r="F52">
-        <v>0.9251856705985146</v>
+        <v>0.8849601285776102</v>
       </c>
       <c r="G52">
-        <v>0.9044802076895951</v>
+        <v>0.9044740263189589</v>
       </c>
       <c r="H52">
         <v>0.9747907606433689</v>
@@ -2503,19 +2509,19 @@
         <v>1.056493827160494</v>
       </c>
       <c r="C53">
-        <v>0.8963242224316682</v>
+        <v>0.9340323285277413</v>
       </c>
       <c r="D53">
         <v>0.8447442097225757</v>
       </c>
       <c r="E53">
-        <v>0.8313349320543566</v>
+        <v>0.8313329121920404</v>
       </c>
       <c r="F53">
-        <v>0.9340323285277413</v>
+        <v>0.8962724856277431</v>
       </c>
       <c r="G53">
-        <v>0.9125859039793672</v>
+        <v>0.9125751526461189</v>
       </c>
       <c r="H53">
         <v>0.9903535512972134</v>
@@ -2532,19 +2538,19 @@
         <v>1.01758024691358</v>
       </c>
       <c r="C54">
-        <v>0.8671065032987748</v>
+        <v>0.9327763215377894</v>
       </c>
       <c r="D54">
         <v>0.8377025536608127</v>
       </c>
       <c r="E54">
-        <v>0.8257394084732214</v>
+        <v>0.8257527900610655</v>
       </c>
       <c r="F54">
-        <v>0.9327763215377894</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="G54">
-        <v>0.8961810067768357</v>
+        <v>0.8961814341747745</v>
       </c>
       <c r="H54">
         <v>0.9767649687220733</v>
@@ -2561,19 +2567,19 @@
         <v>0.977283950617284</v>
       </c>
       <c r="C55">
-        <v>0.8435438265786994</v>
+        <v>0.9249672346002621</v>
       </c>
       <c r="D55">
         <v>0.82226181386273</v>
       </c>
       <c r="E55">
-        <v>0.812150279776179</v>
+        <v>0.8121709833649189</v>
       </c>
       <c r="F55">
-        <v>0.9249672346002621</v>
+        <v>0.8435433022192002</v>
       </c>
       <c r="G55">
-        <v>0.8760414210870311</v>
+        <v>0.8760454569328792</v>
       </c>
       <c r="H55">
         <v>0.9647296811269164</v>
@@ -2590,19 +2596,19 @@
         <v>0.9830123456790123</v>
       </c>
       <c r="C56">
-        <v>0.8576814326107447</v>
+        <v>0.9295543905635649</v>
       </c>
       <c r="D56">
         <v>0.8279460422499363</v>
       </c>
       <c r="E56">
-        <v>0.815347721822542</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="F56">
-        <v>0.9295543905635649</v>
+        <v>0.8576373864128083</v>
       </c>
       <c r="G56">
-        <v>0.8827083865851602</v>
+        <v>0.8826959415934039</v>
       </c>
       <c r="H56">
         <v>0.9670651205963146</v>
@@ -2619,19 +2625,19 @@
         <v>1.015012345679013</v>
       </c>
       <c r="C57">
-        <v>0.8934967012252591</v>
+        <v>0.9548383573612932</v>
       </c>
       <c r="D57">
         <v>0.8464409943157716</v>
       </c>
       <c r="E57">
-        <v>0.8273381294964028</v>
+        <v>0.8273320699094547</v>
       </c>
       <c r="F57">
-        <v>0.9548383573612932</v>
+        <v>0.8934907584842678</v>
       </c>
       <c r="G57">
-        <v>0.907425305615548</v>
+        <v>0.90742290514996</v>
       </c>
       <c r="H57">
         <v>0.9818881721848689</v>
@@ -2648,19 +2654,19 @@
         <v>1.011950617283951</v>
       </c>
       <c r="C58">
-        <v>0.8821866163996231</v>
+        <v>0.9541830493665356</v>
       </c>
       <c r="D58">
         <v>0.8417748366844828</v>
       </c>
       <c r="E58">
-        <v>0.8409272581934453</v>
+        <v>0.8409138766056011</v>
       </c>
       <c r="F58">
-        <v>0.9541830493665356</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="G58">
-        <v>0.9062044755856076</v>
+        <v>0.9062001562749411</v>
       </c>
       <c r="H58">
         <v>0.9823829021329928</v>
@@ -2677,19 +2683,19 @@
         <v>1.025185185185185</v>
       </c>
       <c r="C59">
-        <v>0.8925541941564561</v>
+        <v>0.959480122324159</v>
       </c>
       <c r="D59">
         <v>0.8451684058708746</v>
       </c>
       <c r="E59">
-        <v>0.8577138289368506</v>
+        <v>0.857706885660139</v>
       </c>
       <c r="F59">
-        <v>0.959480122324159</v>
+        <v>0.8925016999443655</v>
       </c>
       <c r="G59">
-        <v>0.9160203472947051</v>
+        <v>0.9160084597969447</v>
       </c>
       <c r="H59">
         <v>0.9863752942857905</v>
@@ -2706,19 +2712,19 @@
         <v>1.002074074074074</v>
       </c>
       <c r="C60">
-        <v>0.8812441093308201</v>
+        <v>0.955166011358672</v>
       </c>
       <c r="D60">
         <v>0.8451684058708746</v>
       </c>
       <c r="E60">
-        <v>0.8257394084732214</v>
+        <v>0.8257527900610655</v>
       </c>
       <c r="F60">
-        <v>0.955166011358672</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="G60">
-        <v>0.9018784018215324</v>
+        <v>0.9018701248517837</v>
       </c>
       <c r="H60">
         <v>0.9822462624330348</v>
@@ -2735,19 +2741,19 @@
         <v>1.010469135802469</v>
       </c>
       <c r="C61">
-        <v>0.8982092365692743</v>
+        <v>0.9627020532983835</v>
       </c>
       <c r="D61">
         <v>0.8591668787647407</v>
       </c>
       <c r="E61">
-        <v>0.8313349320543566</v>
+        <v>0.8313329121920404</v>
       </c>
       <c r="F61">
-        <v>0.9627020532983835</v>
+        <v>0.898188786548804</v>
       </c>
       <c r="G61">
-        <v>0.912376447297845</v>
+        <v>0.9123719533212876</v>
       </c>
       <c r="H61">
         <v>0.9912911823417532</v>
@@ -2764,19 +2770,19 @@
         <v>1.018666666666667</v>
       </c>
       <c r="C62">
-        <v>0.9095193213949105</v>
+        <v>0.9664700742682395</v>
       </c>
       <c r="D62">
         <v>0.8747772970221429</v>
       </c>
       <c r="E62">
-        <v>0.8345323741007195</v>
+        <v>0.8345441145504316</v>
       </c>
       <c r="F62">
-        <v>0.9664700742682395</v>
+        <v>0.9095011435989369</v>
       </c>
       <c r="G62">
-        <v>0.9207931466905359</v>
+        <v>0.9207918592212836</v>
       </c>
       <c r="H62">
         <v>0.9936391863812625</v>
@@ -2793,19 +2799,19 @@
         <v>1.024</v>
       </c>
       <c r="C63">
-        <v>0.9142318567389255</v>
+        <v>0.9651048492791613</v>
       </c>
       <c r="D63">
         <v>0.874353100873844</v>
       </c>
       <c r="E63">
-        <v>0.8425259792166268</v>
+        <v>0.8425457991156033</v>
       </c>
       <c r="F63">
-        <v>0.9651048492791613</v>
+        <v>0.914199171663473</v>
       </c>
       <c r="G63">
-        <v>0.9240431572217116</v>
+        <v>0.9240405841864164</v>
       </c>
       <c r="H63">
         <v>0.9962290583954103</v>
@@ -2822,19 +2828,19 @@
         <v>1.035654320987654</v>
       </c>
       <c r="C64">
-        <v>0.9085768143261075</v>
+        <v>0.9670161642638707</v>
       </c>
       <c r="D64">
         <v>0.8703656570798337</v>
       </c>
       <c r="E64">
-        <v>0.8377298161470823</v>
+        <v>0.8377553169088229</v>
       </c>
       <c r="F64">
-        <v>0.9670161642638707</v>
+        <v>0.9085739012177784</v>
       </c>
       <c r="G64">
-        <v>0.9238685545609098</v>
+        <v>0.923873072091592</v>
       </c>
       <c r="H64">
         <v>0.9970112028848254</v>
@@ -2851,19 +2857,19 @@
         <v>1.048098765432099</v>
       </c>
       <c r="C65">
-        <v>0.9038642789820923</v>
+        <v>0.9815421581476629</v>
       </c>
       <c r="D65">
         <v>0.8712988886060913</v>
       </c>
       <c r="E65">
-        <v>0.8353317346123101</v>
+        <v>0.8353337544746262</v>
       </c>
       <c r="F65">
-        <v>0.9815421581476629</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="G65">
-        <v>0.9280271651560511</v>
+        <v>0.9280175247309956</v>
       </c>
       <c r="H65">
         <v>0.9983728881706143</v>
@@ -2880,19 +2886,19 @@
         <v>1.045728395061728</v>
       </c>
       <c r="C66">
-        <v>0.8906691800188501</v>
+        <v>0.9760812581913501</v>
       </c>
       <c r="D66">
         <v>0.866547891745143</v>
       </c>
       <c r="E66">
-        <v>0.8401278976818545</v>
+        <v>0.8401242366814067</v>
       </c>
       <c r="F66">
-        <v>0.9760812581913501</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="G66">
-        <v>0.9238309245397853</v>
+        <v>0.9238257993723354</v>
       </c>
       <c r="H66">
         <v>0.9949945893819959</v>
@@ -2909,19 +2915,19 @@
         <v>1.004543209876543</v>
       </c>
       <c r="C67">
-        <v>0.8633364750235627</v>
+        <v>0.9552206203582351</v>
       </c>
       <c r="D67">
         <v>0.8546703995927717</v>
       </c>
       <c r="E67">
-        <v>0.8145483613109512</v>
+        <v>0.8145399031375026</v>
       </c>
       <c r="F67">
-        <v>0.9552206203582351</v>
+        <v>0.8633244730172468</v>
       </c>
       <c r="G67">
-        <v>0.8984638132324129</v>
+        <v>0.8984597211964599</v>
       </c>
       <c r="H67">
         <v>0.9779036328883906</v>
@@ -2938,19 +2944,19 @@
         <v>0.9978271604938271</v>
       </c>
       <c r="C68">
-        <v>0.8671065032987748</v>
+        <v>0.9660878112712975</v>
       </c>
       <c r="D68">
         <v>0.8576397726308643</v>
       </c>
       <c r="E68">
-        <v>0.812150279776179</v>
+        <v>0.8121709833649189</v>
       </c>
       <c r="F68">
-        <v>0.9660878112712975</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="G68">
-        <v>0.9001623054941885</v>
+        <v>0.9001641972923065</v>
       </c>
       <c r="H68">
         <v>0.9752902023052845</v>
@@ -2967,19 +2973,19 @@
         <v>1.020246913580247</v>
       </c>
       <c r="C69">
-        <v>0.9038642789820923</v>
+        <v>0.969309742245522</v>
       </c>
       <c r="D69">
         <v>0.8657843386782047</v>
       </c>
       <c r="E69">
-        <v>0.8233413269384493</v>
+        <v>0.8233312276268688</v>
       </c>
       <c r="F69">
-        <v>0.969309742245522</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="G69">
-        <v>0.916509320084903</v>
+        <v>0.9164972558250682</v>
       </c>
       <c r="H69">
         <v>0.9858805643376666</v>
@@ -2996,19 +3002,19 @@
         <v>1.035358024691358</v>
       </c>
       <c r="C70">
-        <v>0.9038642789820923</v>
+        <v>0.9730231542158149</v>
       </c>
       <c r="D70">
         <v>0.8587426826164418</v>
       </c>
       <c r="E70">
-        <v>0.8217426059152678</v>
+        <v>0.8217519477784797</v>
       </c>
       <c r="F70">
-        <v>0.9730231542158149</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="G70">
-        <v>0.9185461492841951</v>
+        <v>0.9185379732593186</v>
       </c>
       <c r="H70">
         <v>0.9857627714928752</v>
@@ -3025,19 +3031,19 @@
         <v>1.029827160493827</v>
       </c>
       <c r="C71">
-        <v>0.9029217719132893</v>
+        <v>0.969692005242464</v>
       </c>
       <c r="D71">
         <v>0.8610333418172562</v>
       </c>
       <c r="E71">
-        <v>0.8225419664268584</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="F71">
-        <v>0.969692005242464</v>
+        <v>0.9028868146133399</v>
       </c>
       <c r="G71">
-        <v>0.9172032491787391</v>
+        <v>0.9171961819739124</v>
       </c>
       <c r="H71">
         <v>0.9956777878817863</v>
@@ -3054,19 +3060,19 @@
         <v>1.066666666666667</v>
       </c>
       <c r="C72">
-        <v>0.9557021677662583</v>
+        <v>0.9888597640891219</v>
       </c>
       <c r="D72">
         <v>0.8903877152795453</v>
       </c>
       <c r="E72">
-        <v>0.8337330135891287</v>
+        <v>0.8337544746262372</v>
       </c>
       <c r="F72">
-        <v>0.9888597640891219</v>
+        <v>0.9556778141806269</v>
       </c>
       <c r="G72">
-        <v>0.9470698654781442</v>
+        <v>0.9470692869684397</v>
       </c>
       <c r="H72">
         <v>1.009132871899496</v>
@@ -3083,19 +3089,19 @@
         <v>1.057086419753086</v>
       </c>
       <c r="C73">
-        <v>0.9509896324222431</v>
+        <v>0.9923547400611621</v>
       </c>
       <c r="D73">
         <v>0.88427929074404</v>
       </c>
       <c r="E73">
-        <v>0.8297362110311751</v>
+        <v>0.8297536323436513</v>
       </c>
       <c r="F73">
-        <v>0.9923547400611621</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="G73">
-        <v>0.9428892588023414</v>
+        <v>0.9428907738036061</v>
       </c>
       <c r="H73">
         <v>1.009648019274051</v>
@@ -3112,19 +3118,19 @@
         <v>1.049876543209876</v>
       </c>
       <c r="C74">
-        <v>0.9509896324222431</v>
+        <v>1.011686325906509</v>
       </c>
       <c r="D74">
         <v>0.8814795961652667</v>
       </c>
       <c r="E74">
-        <v>0.8225419664268584</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="F74">
-        <v>1.011686325906509</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="G74">
-        <v>0.9433148128261509</v>
+        <v>0.9433127678200836</v>
       </c>
       <c r="H74">
         <v>1.008347586267553</v>
@@ -3141,19 +3147,19 @@
         <v>1.054024691358025</v>
       </c>
       <c r="C75">
-        <v>0.9528746465598491</v>
+        <v>1.017365661861075</v>
       </c>
       <c r="D75">
         <v>0.8981080851785865</v>
       </c>
       <c r="E75">
-        <v>0.8225419664268584</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="F75">
-        <v>1.017365661861075</v>
+        <v>0.9528342708784078</v>
       </c>
       <c r="G75">
-        <v>0.9489830102768788</v>
+        <v>0.9489748593957537</v>
       </c>
       <c r="H75">
         <v>1.012306996423809</v>
@@ -3170,19 +3176,19 @@
         <v>1.065086419753086</v>
       </c>
       <c r="C76">
-        <v>0.9641847313854853</v>
+        <v>1.024737876802097</v>
       </c>
       <c r="D76">
         <v>0.8931025706286586</v>
       </c>
       <c r="E76">
-        <v>0.8201438848920863</v>
+        <v>0.8201726679300906</v>
       </c>
       <c r="F76">
-        <v>1.024737876802097</v>
+        <v>0.9641466279285407</v>
       </c>
       <c r="G76">
-        <v>0.9534510966922828</v>
+        <v>0.9534492326084947</v>
       </c>
       <c r="H76">
         <v>1.015022514139068</v>
@@ -3199,19 +3205,19 @@
         <v>1.072987654320988</v>
       </c>
       <c r="C77">
-        <v>0.9547596606974551</v>
+        <v>1.033366098733071</v>
       </c>
       <c r="D77">
         <v>0.8907270721981845</v>
       </c>
       <c r="E77">
-        <v>0.8193445243804955</v>
+        <v>0.819330385344283</v>
       </c>
       <c r="F77">
-        <v>1.033366098733071</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="G77">
-        <v>0.9542370020660388</v>
+        <v>0.954232356479199</v>
       </c>
       <c r="H77">
         <v>1.011864095327393</v>
@@ -3228,19 +3234,19 @@
         <v>1.075259259259259</v>
       </c>
       <c r="C78">
-        <v>0.945334590009425</v>
+        <v>1.052588466579292</v>
       </c>
       <c r="D78">
         <v>0.890896750657504</v>
       </c>
       <c r="E78">
-        <v>0.8089528377298162</v>
+        <v>0.8089597810065277</v>
       </c>
       <c r="F78">
-        <v>1.052588466579292</v>
+        <v>0.9452926995116523</v>
       </c>
       <c r="G78">
-        <v>0.9546063808470594</v>
+        <v>0.9545993914028471</v>
       </c>
       <c r="H78">
         <v>1.012434212696184</v>
@@ -3257,19 +3263,19 @@
         <v>1.075654320987654</v>
       </c>
       <c r="C79">
-        <v>0.9679547596606973</v>
+        <v>1.068643512450852</v>
       </c>
       <c r="D79">
         <v>0.8874183422414524</v>
       </c>
       <c r="E79">
-        <v>0.815347721822542</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="F79">
-        <v>1.068643512450852</v>
+        <v>0.9679174136119183</v>
       </c>
       <c r="G79">
-        <v>0.9630037314326396</v>
+        <v>0.9629926264707149</v>
       </c>
       <c r="H79">
         <v>1.019259915409032</v>
@@ -3286,19 +3292,19 @@
         <v>1.085530864197531</v>
       </c>
       <c r="C80">
-        <v>0.9651272384542884</v>
+        <v>1.059141546526868</v>
       </c>
       <c r="D80">
         <v>0.8881818953083905</v>
       </c>
       <c r="E80">
-        <v>0.815347721822542</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="F80">
-        <v>1.059141546526868</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="G80">
-        <v>0.962665853261924</v>
+        <v>0.9626515438808371</v>
       </c>
       <c r="H80">
         <v>1.019603870515823</v>
@@ -3315,19 +3321,19 @@
         <v>1.083358024691358</v>
       </c>
       <c r="C81">
-        <v>0.9839773798303488</v>
+        <v>1.079838357361293</v>
       </c>
       <c r="D81">
         <v>0.8793586154237719</v>
       </c>
       <c r="E81">
-        <v>0.7889688249400479</v>
+        <v>0.7889555695935986</v>
       </c>
       <c r="F81">
-        <v>1.079838357361293</v>
+        <v>0.9839277987265871</v>
       </c>
       <c r="G81">
-        <v>0.9631002404493642</v>
+        <v>0.9630876731593219</v>
       </c>
       <c r="H81">
         <v>1.018626975189686</v>
@@ -3344,19 +3350,19 @@
         <v>1.109135802469136</v>
       </c>
       <c r="C82">
-        <v>0.9764373232799246</v>
+        <v>1.045871559633027</v>
       </c>
       <c r="D82">
         <v>0.866038856367184</v>
       </c>
       <c r="E82">
-        <v>0.7993605115907274</v>
+        <v>0.7993788165929669</v>
       </c>
       <c r="F82">
-        <v>1.045871559633027</v>
+        <v>0.9763862273598318</v>
       </c>
       <c r="G82">
-        <v>0.9593688106679999</v>
+        <v>0.9593622524844293</v>
       </c>
       <c r="H82">
         <v>1.01919866312974</v>
@@ -3373,19 +3379,19 @@
         <v>1.136987654320988</v>
       </c>
       <c r="C83">
-        <v>0.9500471253534402</v>
+        <v>1.011031017911752</v>
       </c>
       <c r="D83">
         <v>0.8410112836175446</v>
       </c>
       <c r="E83">
-        <v>0.7881694644284573</v>
+        <v>0.7881659296694041</v>
       </c>
       <c r="F83">
-        <v>1.011031017911752</v>
+        <v>0.9499907275761884</v>
       </c>
       <c r="G83">
-        <v>0.9454493091264364</v>
+        <v>0.9454373226191755</v>
       </c>
       <c r="H83">
         <v>1.012145227583629</v>
@@ -3402,19 +3408,19 @@
         <v>1.191012345679012</v>
       </c>
       <c r="C84">
-        <v>0.9547596606974551</v>
+        <v>1.027359108781127</v>
       </c>
       <c r="D84">
         <v>0.8298125053024518</v>
       </c>
       <c r="E84">
-        <v>0.7777777777777777</v>
+        <v>0.7777953253316489</v>
       </c>
       <c r="F84">
-        <v>1.027359108781127</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="G84">
-        <v>0.9561442796475649</v>
+        <v>0.9561459713787418</v>
       </c>
       <c r="H84">
         <v>1.017100379921189</v>
@@ -3431,19 +3437,19 @@
         <v>1.144296296296296</v>
       </c>
       <c r="C85">
-        <v>0.9387370405278039</v>
+        <v>1.035113586719091</v>
       </c>
       <c r="D85">
         <v>0.8307457368287096</v>
       </c>
       <c r="E85">
-        <v>0.7961630695443646</v>
+        <v>0.7961676142345757</v>
       </c>
       <c r="F85">
-        <v>1.035113586719091</v>
+        <v>0.9387401866847994</v>
       </c>
       <c r="G85">
-        <v>0.9490111459832532</v>
+        <v>0.9490126841526946</v>
       </c>
       <c r="H85">
         <v>1.013967090249737</v>
@@ -3460,19 +3466,19 @@
         <v>1.149432098765432</v>
       </c>
       <c r="C86">
-        <v>0.942507068803016</v>
+        <v>1.054499781564002</v>
       </c>
       <c r="D86">
         <v>0.8356664121489776</v>
       </c>
       <c r="E86">
-        <v>0.7929656274980016</v>
+        <v>0.7929564118761845</v>
       </c>
       <c r="F86">
-        <v>1.054499781564002</v>
+        <v>0.9424491562094331</v>
       </c>
       <c r="G86">
-        <v>0.9550141977558858</v>
+        <v>0.9550007721128059</v>
       </c>
       <c r="H86">
         <v>1.022763859898761</v>
@@ -3489,19 +3495,19 @@
         <v>1.095111111111111</v>
       </c>
       <c r="C87">
-        <v>0.9236569274269556</v>
+        <v>1.065093927479249</v>
       </c>
       <c r="D87">
         <v>0.8341393060151013</v>
       </c>
       <c r="E87">
-        <v>0.7905675459632294</v>
+        <v>0.7905874921036008</v>
       </c>
       <c r="F87">
-        <v>1.065093927479249</v>
+        <v>0.9236570439512889</v>
       </c>
       <c r="G87">
-        <v>0.9417137635991293</v>
+        <v>0.9417177761320703</v>
       </c>
       <c r="H87">
         <v>1.011295548529867</v>
@@ -3518,19 +3524,19 @@
         <v>1.100246913580247</v>
       </c>
       <c r="C88">
-        <v>0.9519321394910462</v>
+        <v>1.085626911314985</v>
       </c>
       <c r="D88">
         <v>0.8482226181386273</v>
       </c>
       <c r="E88">
-        <v>0.818545163868905</v>
+        <v>0.8185407454200885</v>
       </c>
       <c r="F88">
-        <v>1.085626911314985</v>
+        <v>0.9519070284972493</v>
       </c>
       <c r="G88">
-        <v>0.9609147492787621</v>
+        <v>0.9609088433902394</v>
       </c>
       <c r="H88">
         <v>1.024923395386604</v>
@@ -3547,19 +3553,19 @@
         <v>1.13037037037037</v>
       </c>
       <c r="C89">
-        <v>0.9924599434495758</v>
+        <v>1.096657929226737</v>
       </c>
       <c r="D89">
         <v>0.8617968948841944</v>
       </c>
       <c r="E89">
-        <v>0.8233413269384493</v>
+        <v>0.8233312276268688</v>
       </c>
       <c r="F89">
-        <v>1.096657929226737</v>
+        <v>0.9924584286332447</v>
       </c>
       <c r="G89">
-        <v>0.9809252929738654</v>
+        <v>0.9809229701482831</v>
       </c>
       <c r="H89">
         <v>1.033143765381782</v>
@@ -3576,19 +3582,19 @@
         <v>1.144098765432099</v>
       </c>
       <c r="C90">
-        <v>0.9934024505183789</v>
+        <v>1.080439056356488</v>
       </c>
       <c r="D90">
         <v>0.8630694833290914</v>
       </c>
       <c r="E90">
-        <v>0.8401278976818545</v>
+        <v>0.8401242366814067</v>
       </c>
       <c r="F90">
-        <v>1.080439056356488</v>
+        <v>0.9933856710144032</v>
       </c>
       <c r="G90">
-        <v>0.9842275306635823</v>
+        <v>0.9842234425626976</v>
       </c>
       <c r="H90">
         <v>1.036514211314081</v>
@@ -3605,19 +3611,19 @@
         <v>1.150123456790124</v>
       </c>
       <c r="C91">
-        <v>1.026390197926484</v>
+        <v>1.079729139362167</v>
       </c>
       <c r="D91">
         <v>0.8720624416730296</v>
       </c>
       <c r="E91">
-        <v>0.841726618705036</v>
+        <v>0.8417561591914087</v>
       </c>
       <c r="F91">
-        <v>1.079729139362167</v>
+        <v>1.0263336836249</v>
       </c>
       <c r="G91">
-        <v>0.994006370891368</v>
+        <v>0.9940009761283258</v>
       </c>
       <c r="H91">
         <v>1.034125372421711</v>
@@ -3634,19 +3640,19 @@
         <v>1.117037037037037</v>
       </c>
       <c r="C92">
-        <v>1.032045240339303</v>
+        <v>1.081422018348624</v>
       </c>
       <c r="D92">
         <v>0.8783405446678545</v>
       </c>
       <c r="E92">
-        <v>0.8433253397282174</v>
+        <v>0.8433354390397979</v>
       </c>
       <c r="F92">
-        <v>1.081422018348624</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="G92">
-        <v>0.9904340360242071</v>
+        <v>0.9904311618645303</v>
       </c>
       <c r="H92">
         <v>1.028521574152166</v>
@@ -3663,19 +3669,19 @@
         <v>1.123061728395062</v>
       </c>
       <c r="C93">
-        <v>1.027332704995288</v>
+        <v>1.055537352555701</v>
       </c>
       <c r="D93">
         <v>0.868584033256978</v>
       </c>
       <c r="E93">
-        <v>0.8273381294964028</v>
+        <v>0.8273320699094547</v>
       </c>
       <c r="F93">
-        <v>1.055537352555701</v>
+        <v>1.027322742164802</v>
       </c>
       <c r="G93">
-        <v>0.9803707897398863</v>
+        <v>0.9803675852563994</v>
       </c>
       <c r="H93">
         <v>1.025246933066964</v>
@@ -3692,19 +3698,19 @@
         <v>1.115358024691358</v>
       </c>
       <c r="C94">
-        <v>1.02827521206409</v>
+        <v>1.050240279598078</v>
       </c>
       <c r="D94">
         <v>0.8836005769067617</v>
       </c>
       <c r="E94">
-        <v>0.8345323741007195</v>
+        <v>0.8345441145504316</v>
       </c>
       <c r="F94">
-        <v>1.050240279598078</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="G94">
-        <v>0.9824012934722016</v>
+        <v>0.982398596058518</v>
       </c>
       <c r="H94">
         <v>1.027800681942043</v>
@@ -3721,19 +3727,19 @@
         <v>1.124345679012346</v>
       </c>
       <c r="C95">
-        <v>1.037700282752121</v>
+        <v>1.074923547400612</v>
       </c>
       <c r="D95">
         <v>0.9043013489437516</v>
       </c>
       <c r="E95">
-        <v>0.8617106314948043</v>
+        <v>0.8617077279427248</v>
       </c>
       <c r="F95">
-        <v>1.074923547400612</v>
+        <v>1.037646040675033</v>
       </c>
       <c r="G95">
-        <v>1.000596297920727</v>
+        <v>1.000584868794893</v>
       </c>
       <c r="H95">
         <v>1.0396663478407</v>
@@ -3750,19 +3756,19 @@
         <v>1.134123456790123</v>
       </c>
       <c r="C96">
-        <v>1.032045240339303</v>
+        <v>1.074159021406728</v>
       </c>
       <c r="D96">
         <v>0.8938661236955968</v>
       </c>
       <c r="E96">
-        <v>0.8617106314948043</v>
+        <v>0.8617077279427248</v>
       </c>
       <c r="F96">
-        <v>1.074159021406728</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="G96">
-        <v>0.9991808947453111</v>
+        <v>0.9991754200129023</v>
       </c>
       <c r="H96">
         <v>1.041007615700059</v>
@@ -3779,19 +3785,19 @@
         <v>1.134320987654321</v>
       </c>
       <c r="C97">
-        <v>1.036757775683318</v>
+        <v>1.074049803407602</v>
       </c>
       <c r="D97">
         <v>0.9163485195554424</v>
       </c>
       <c r="E97">
-        <v>0.8689048760991207</v>
+        <v>0.8689197725837019</v>
       </c>
       <c r="F97">
-        <v>1.074049803407602</v>
+        <v>1.036718798293874</v>
       </c>
       <c r="G97">
-        <v>1.006076392479961</v>
+        <v>1.006071576298988</v>
       </c>
       <c r="H97">
         <v>1.049991283329486</v>
@@ -3808,19 +3814,19 @@
         <v>1.150913580246914</v>
       </c>
       <c r="C98">
-        <v>1.079170593779453</v>
+        <v>1.055100480559196</v>
       </c>
       <c r="D98">
         <v>0.9138881818953083</v>
       </c>
       <c r="E98">
-        <v>0.8729016786570745</v>
+        <v>0.8729206148662876</v>
       </c>
       <c r="F98">
-        <v>1.055100480559196</v>
+        <v>1.079124683192187</v>
       </c>
       <c r="G98">
-        <v>1.014394903027589</v>
+        <v>1.014389508151978</v>
       </c>
       <c r="H98">
         <v>1.047283618470546</v>
@@ -3837,19 +3843,19 @@
         <v>1.181432098765432</v>
       </c>
       <c r="C99">
-        <v>1.130065975494816</v>
+        <v>1.079128440366973</v>
       </c>
       <c r="D99">
         <v>0.9236446933061847</v>
       </c>
       <c r="E99">
-        <v>0.8976818545163868</v>
+        <v>0.8976626658243841</v>
       </c>
       <c r="F99">
-        <v>1.079128440366973</v>
+        <v>1.130061197997157</v>
       </c>
       <c r="G99">
-        <v>1.042390612489958</v>
+        <v>1.042385819252026</v>
       </c>
       <c r="H99">
         <v>1.0568358328975</v>
@@ -3866,19 +3872,19 @@
         <v>1.183111111111111</v>
       </c>
       <c r="C100">
-        <v>1.116870876531574</v>
+        <v>1.086719091306247</v>
       </c>
       <c r="D100">
         <v>0.9302621532196488</v>
       </c>
       <c r="E100">
-        <v>0.8928856914468426</v>
+        <v>0.8928721836176037</v>
       </c>
       <c r="F100">
-        <v>1.086719091306247</v>
+        <v>1.116832540025963</v>
       </c>
       <c r="G100">
-        <v>1.041969784723085</v>
+        <v>1.041959415856115</v>
       </c>
       <c r="H100">
         <v>1.058527338148705</v>
@@ -3895,19 +3901,19 @@
         <v>1.166716049382716</v>
       </c>
       <c r="C101">
-        <v>1.111215834118756</v>
+        <v>1.065093927479249</v>
       </c>
       <c r="D101">
         <v>0.9138033426656484</v>
       </c>
       <c r="E101">
-        <v>0.8729016786570745</v>
+        <v>0.8729206148662876</v>
       </c>
       <c r="F101">
-        <v>1.065093927479249</v>
+        <v>1.111207269580268</v>
       </c>
       <c r="G101">
-        <v>1.025946166460689</v>
+        <v>1.025948240794834</v>
       </c>
       <c r="H101">
         <v>1.049366195966459</v>
@@ -3924,19 +3930,19 @@
         <v>1.167012345679012</v>
       </c>
       <c r="C102">
-        <v>1.106503298774741</v>
+        <v>1.043141109654871</v>
       </c>
       <c r="D102">
         <v>0.9190633749045557</v>
       </c>
       <c r="E102">
-        <v>0.8609112709832135</v>
+        <v>0.8609180880185302</v>
       </c>
       <c r="F102">
-        <v>1.043141109654871</v>
+        <v>1.106447425356988</v>
       </c>
       <c r="G102">
-        <v>1.019326279999279</v>
+        <v>1.019316468722792</v>
       </c>
       <c r="H102">
         <v>1.047214513334935</v>
@@ -3953,19 +3959,19 @@
         <v>1.163654320987654</v>
       </c>
       <c r="C103">
-        <v>1.133836003770028</v>
+        <v>1.049858016601136</v>
       </c>
       <c r="D103">
         <v>0.9246627640621023</v>
       </c>
       <c r="E103">
-        <v>0.8705035971223022</v>
+        <v>0.8704990524320909</v>
       </c>
       <c r="F103">
-        <v>1.049858016601136</v>
+        <v>1.133831983680534</v>
       </c>
       <c r="G103">
-        <v>1.028502940508645</v>
+        <v>1.028501227552704</v>
       </c>
       <c r="H103">
         <v>1.051192770346358</v>
@@ -3982,19 +3988,19 @@
         <v>1.158617283950617</v>
       </c>
       <c r="C104">
-        <v>1.113100848256362</v>
+        <v>1.062636522498908</v>
       </c>
       <c r="D104">
         <v>0.9384915584966489</v>
       </c>
       <c r="E104">
-        <v>0.8848920863309353</v>
+        <v>0.8849231417140451</v>
       </c>
       <c r="F104">
-        <v>1.062636522498908</v>
+        <v>1.113061754342585</v>
       </c>
       <c r="G104">
-        <v>1.031547659906694</v>
+        <v>1.031546052200561</v>
       </c>
       <c r="H104">
         <v>1.055659475020849</v>
@@ -4011,19 +4017,19 @@
         <v>1.133333333333333</v>
       </c>
       <c r="C105">
-        <v>1.105560791705938</v>
+        <v>1.052042376583661</v>
       </c>
       <c r="D105">
         <v>0.9352676677695766</v>
       </c>
       <c r="E105">
-        <v>0.8952837729816148</v>
+        <v>0.8952937460518005</v>
       </c>
       <c r="F105">
-        <v>1.052042376583661</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="G105">
-        <v>1.024297588474825</v>
+        <v>1.02429146134284</v>
       </c>
       <c r="H105">
         <v>1.049857784772055</v>
@@ -4040,19 +4046,19 @@
         <v>1.13679012345679</v>
       </c>
       <c r="C106">
-        <v>1.103675777568332</v>
+        <v>1.047400611620795</v>
       </c>
       <c r="D106">
         <v>0.9382370408076695</v>
       </c>
       <c r="E106">
-        <v>0.9008792965627499</v>
+        <v>0.9008738681827754</v>
       </c>
       <c r="F106">
-        <v>1.047400611620795</v>
+        <v>1.103665698213513</v>
       </c>
       <c r="G106">
-        <v>1.025396570003267</v>
+        <v>1.025393468456309</v>
       </c>
       <c r="H106">
         <v>1.051167641206136</v>
@@ -4069,19 +4075,19 @@
         <v>1.141728395061728</v>
       </c>
       <c r="C107">
-        <v>1.141376060320452</v>
+        <v>1.051441677588467</v>
       </c>
       <c r="D107">
         <v>0.944939339950793</v>
       </c>
       <c r="E107">
-        <v>0.903277378097522</v>
+        <v>0.903295430616972</v>
       </c>
       <c r="F107">
-        <v>1.051441677588467</v>
+        <v>1.141311738888546</v>
       </c>
       <c r="G107">
-        <v>1.036552570203793</v>
+        <v>1.036543316421301</v>
       </c>
       <c r="H107">
         <v>1.062591976579641</v>
@@ -4098,19 +4104,19 @@
         <v>1.142617283950617</v>
       </c>
       <c r="C108">
-        <v>1.152686145146089</v>
+        <v>1.04521625163827</v>
       </c>
       <c r="D108">
         <v>0.9328073301094425</v>
       </c>
       <c r="E108">
-        <v>0.8745003996802558</v>
+        <v>0.8744998947146768</v>
       </c>
       <c r="F108">
-        <v>1.04521625163827</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="G108">
-        <v>1.029565482104935</v>
+        <v>1.029552971270337</v>
       </c>
       <c r="H108">
         <v>1.056353667519487</v>
@@ -4127,19 +4133,19 @@
         <v>1.103506172839506</v>
       </c>
       <c r="C109">
-        <v>1.144203581526861</v>
+        <v>1.024847094801223</v>
       </c>
       <c r="D109">
         <v>0.9378976838890302</v>
       </c>
       <c r="E109">
-        <v>0.8760991207034374</v>
+        <v>0.8760791745630658</v>
       </c>
       <c r="F109">
-        <v>1.024847094801223</v>
+        <v>1.144155282190765</v>
       </c>
       <c r="G109">
-        <v>1.017310730752012</v>
+        <v>1.017297081656718</v>
       </c>
       <c r="H109">
         <v>1.046575290830534</v>
@@ -4156,19 +4162,19 @@
         <v>1.05679012345679</v>
       </c>
       <c r="C110">
-        <v>1.076343072573044</v>
+        <v>1.003713411970293</v>
       </c>
       <c r="D110">
         <v>0.9149910918808857</v>
       </c>
       <c r="E110">
-        <v>0.8665067945643485</v>
+        <v>0.8664982101495051</v>
       </c>
       <c r="F110">
-        <v>1.003713411970293</v>
+        <v>1.076281139889967</v>
       </c>
       <c r="G110">
-        <v>0.9836688988890724</v>
+        <v>0.9836547954694883</v>
       </c>
       <c r="H110">
         <v>1.031282638434078</v>
@@ -4185,19 +4191,19 @@
         <v>1.061037037037037</v>
       </c>
       <c r="C111">
-        <v>1.105560791705938</v>
+        <v>1.002184359982525</v>
       </c>
       <c r="D111">
         <v>0.9480783914482055</v>
       </c>
       <c r="E111">
-        <v>0.8745003996802558</v>
+        <v>0.8744998947146768</v>
       </c>
       <c r="F111">
-        <v>1.002184359982525</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="G111">
-        <v>0.9982721959707923</v>
+        <v>0.9982639732316549</v>
       </c>
       <c r="H111">
         <v>1.03911664789834</v>
@@ -4214,19 +4220,19 @@
         <v>1.078617283950617</v>
       </c>
       <c r="C112">
-        <v>1.152686145146089</v>
+        <v>1.009829619921363</v>
       </c>
       <c r="D112">
         <v>0.9597013659115975</v>
       </c>
       <c r="E112">
-        <v>0.8928856914468426</v>
+        <v>0.8928721836176037</v>
       </c>
       <c r="F112">
-        <v>1.009829619921363</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="G112">
-        <v>1.018744021275302</v>
+        <v>1.018728909867972</v>
       </c>
       <c r="H112">
         <v>1.045648653784841</v>
@@ -4243,19 +4249,19 @@
         <v>1.07358024691358</v>
       </c>
       <c r="C113">
-        <v>1.157398680490104</v>
+        <v>1.022826561817388</v>
       </c>
       <c r="D113">
         <v>0.9720030542122676</v>
       </c>
       <c r="E113">
-        <v>0.9264588329336531</v>
+        <v>0.9264582017266794</v>
       </c>
       <c r="F113">
-        <v>1.022826561817388</v>
+        <v>1.157383940161958</v>
       </c>
       <c r="G113">
-        <v>1.030453475273398</v>
+        <v>1.030450400966375</v>
       </c>
       <c r="H113">
         <v>1.053410416970965</v>
@@ -4272,19 +4278,19 @@
         <v>1.079407407407407</v>
       </c>
       <c r="C114">
-        <v>1.161168708765316</v>
+        <v>1.030034949759721</v>
       </c>
       <c r="D114">
         <v>0.9682701281072367</v>
       </c>
       <c r="E114">
-        <v>0.9208633093525179</v>
+        <v>0.9208780795957044</v>
       </c>
       <c r="F114">
-        <v>1.030034949759721</v>
+        <v>1.161154725845336</v>
       </c>
       <c r="G114">
-        <v>1.03194890067844</v>
+        <v>1.031949058143081</v>
       </c>
       <c r="H114">
         <v>1.058532049862497</v>
@@ -4301,19 +4307,19 @@
         <v>1.096691358024692</v>
       </c>
       <c r="C115">
-        <v>1.190386427898209</v>
+        <v>1.032219309742246</v>
       </c>
       <c r="D115">
         <v>0.9934673793161958</v>
       </c>
       <c r="E115">
-        <v>0.9200639488409272</v>
+        <v>0.9200884396715098</v>
       </c>
       <c r="F115">
-        <v>1.032219309742246</v>
+        <v>1.190331952772455</v>
       </c>
       <c r="G115">
-        <v>1.046565684764454</v>
+        <v>1.04655968790542</v>
       </c>
       <c r="H115">
         <v>1.066410035322148</v>
@@ -4330,19 +4336,19 @@
         <v>1.089975308641975</v>
       </c>
       <c r="C116">
-        <v>1.175306314797361</v>
+        <v>1.018403232852774</v>
       </c>
       <c r="D116">
         <v>0.9927038262492576</v>
       </c>
       <c r="E116">
-        <v>0.9072741806554757</v>
+        <v>0.9072962728995578</v>
       </c>
       <c r="F116">
-        <v>1.018403232852774</v>
+        <v>1.175248810038944</v>
       </c>
       <c r="G116">
-        <v>1.036732572639369</v>
+        <v>1.036725490136502</v>
       </c>
       <c r="H116">
         <v>1.060900471328436</v>
@@ -4359,19 +4365,19 @@
         <v>1.117333333333333</v>
       </c>
       <c r="C117">
-        <v>1.193213949104618</v>
+        <v>1.033202271734382</v>
       </c>
       <c r="D117">
         <v>0.9949096462204123</v>
       </c>
       <c r="E117">
-        <v>0.9096722621902478</v>
+        <v>0.9096651926721415</v>
       </c>
       <c r="F117">
-        <v>1.033202271734382</v>
+        <v>1.193175496074674</v>
       </c>
       <c r="G117">
-        <v>1.049666292516599</v>
+        <v>1.049657188006989</v>
       </c>
       <c r="H117">
         <v>1.070094595507224</v>
@@ -4385,28 +4391,289 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.117333333333333</v>
+        <v>1.108444444444445</v>
       </c>
       <c r="C118">
-        <v>1.193213949104618</v>
+        <v>1.051823940585408</v>
       </c>
       <c r="D118">
-        <v>0.9949096462204123</v>
+        <v>1.012641045219309</v>
       </c>
       <c r="E118">
-        <v>0.9096722621902478</v>
+        <v>0.914455674878922</v>
       </c>
       <c r="F118">
-        <v>1.033202271734382</v>
+        <v>1.222414539160537</v>
       </c>
       <c r="G118">
-        <v>1.049666292516599</v>
+        <v>1.061955928857724</v>
       </c>
       <c r="H118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="I118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.093728395061728</v>
+      </c>
+      <c r="C119">
+        <v>1.042376583660987</v>
+      </c>
+      <c r="D119">
+        <v>0.9986425723254433</v>
+      </c>
+      <c r="E119">
+        <v>0.8952937460518005</v>
+      </c>
+      <c r="F119">
+        <v>1.226185324843914</v>
+      </c>
+      <c r="G119">
+        <v>1.051245324388775</v>
+      </c>
+      <c r="H119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="I119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.111901234567901</v>
+      </c>
+      <c r="C120">
+        <v>1.040792922673657</v>
+      </c>
+      <c r="D120">
+        <v>1.017985916687876</v>
+      </c>
+      <c r="E120">
+        <v>0.9080859128237524</v>
+      </c>
+      <c r="F120">
+        <v>1.254435309389875</v>
+      </c>
+      <c r="G120">
+        <v>1.066640259228612</v>
+      </c>
+      <c r="H120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="I120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.092049382716049</v>
+      </c>
+      <c r="C121">
+        <v>1.051660113586719</v>
+      </c>
+      <c r="D121">
+        <v>1.00407228302367</v>
+      </c>
+      <c r="E121">
+        <v>0.8721309749420931</v>
+      </c>
+      <c r="F121">
+        <v>1.241268467577425</v>
+      </c>
+      <c r="G121">
+        <v>1.052236244369191</v>
+      </c>
+      <c r="H121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="I121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.105679012345679</v>
+      </c>
+      <c r="C122">
+        <v>1.024137177806903</v>
+      </c>
+      <c r="D122">
+        <v>0.9787901925850512</v>
+      </c>
+      <c r="E122">
+        <v>0.8441250789639924</v>
+      </c>
+      <c r="F122">
+        <v>1.235581380972986</v>
+      </c>
+      <c r="G122">
+        <v>1.037662568534922</v>
+      </c>
+      <c r="H122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="I122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.155950617283951</v>
+      </c>
+      <c r="C123">
+        <v>1.022662734818698</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>0.8481259212465783</v>
+      </c>
+      <c r="F123">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="G123">
+        <v>1.058126491005384</v>
+      </c>
+      <c r="H123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="I123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.167012345679012</v>
+      </c>
+      <c r="C124">
+        <v>1.003003494975972</v>
+      </c>
+      <c r="D124">
+        <v>0.9915160770340206</v>
+      </c>
+      <c r="E124">
+        <v>0.8521267635291641</v>
+      </c>
+      <c r="F124">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="G124">
+        <v>1.055510372579172</v>
+      </c>
+      <c r="H124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="I124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.202469135802469</v>
+      </c>
+      <c r="C125">
+        <v>1.017529488859764</v>
+      </c>
+      <c r="D125">
+        <v>0.9995758038517009</v>
+      </c>
+      <c r="E125">
+        <v>0.8752895346388714</v>
+      </c>
+      <c r="F125">
+        <v>1.332694566359646</v>
+      </c>
+      <c r="G125">
+        <v>1.085511705902491</v>
+      </c>
+      <c r="H125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="I125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.20720987654321</v>
+      </c>
+      <c r="C126">
+        <v>1.00698995194408</v>
+      </c>
+      <c r="D126">
+        <v>1.012641045219309</v>
+      </c>
+      <c r="E126">
+        <v>0.9080859128237524</v>
+      </c>
+      <c r="F126">
+        <v>1.352475737157693</v>
+      </c>
+      <c r="G126">
+        <v>1.097480504737609</v>
+      </c>
+      <c r="H126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="I126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.275259259259259</v>
+      </c>
+      <c r="C127">
+        <v>1.00611620795107</v>
+      </c>
+      <c r="D127">
+        <v>0.9981335369474845</v>
+      </c>
+      <c r="E127">
+        <v>0.9008738681827754</v>
+      </c>
+      <c r="F127">
+        <v>1.37225690795574</v>
+      </c>
+      <c r="G127">
+        <v>1.110527956059266</v>
+      </c>
+      <c r="H127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="I127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4518,18 +4785,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -4561,213 +4828,195 @@
       <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2">
         <v>0.2</v>
       </c>
       <c r="J2">
-        <v>39.53</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K2">
-        <v>3.11</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L2">
-        <v>16.99</v>
-      </c>
-      <c r="M2">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>0.2</v>
       </c>
       <c r="J3">
-        <v>141.9</v>
+        <v>8.618300437927246</v>
       </c>
       <c r="K3">
-        <v>9.640000000000001</v>
+        <v>53.42950057983398</v>
       </c>
       <c r="L3">
-        <v>12.41</v>
-      </c>
-      <c r="M3">
-        <v>31.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>51.511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4">
         <v>0.2</v>
       </c>
       <c r="J4">
-        <v>36.49</v>
+        <v>4.694399833679199</v>
       </c>
       <c r="K4">
-        <v>4.69</v>
+        <v>36.40560150146484</v>
       </c>
       <c r="L4">
-        <v>12.7</v>
-      </c>
-      <c r="M4">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>6.4975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5">
         <v>0.2</v>
       </c>
       <c r="J5">
-        <v>67.98</v>
+        <v>3.740200042724609</v>
       </c>
       <c r="K5">
-        <v>3.81</v>
+        <v>66.89820098876953</v>
       </c>
       <c r="L5">
-        <v>1.45</v>
-      </c>
-      <c r="M5">
-        <v>27.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27.0909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6">
         <v>0.2</v>
       </c>
       <c r="J6">
-        <v>56.57</v>
+        <v>10.94120025634766</v>
       </c>
       <c r="K6">
-        <v>9.050000000000001</v>
+        <v>161.9600982666016</v>
       </c>
       <c r="L6">
-        <v>27.19</v>
-      </c>
-      <c r="M6">
-        <v>51.51</v>
+        <v>31.9832</v>
       </c>
     </row>
   </sheetData>
@@ -4785,19 +5034,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4805,19 +5054,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4825,19 +5074,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4845,19 +5094,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4865,19 +5114,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4885,19 +5134,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4905,19 +5154,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4925,19 +5174,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4945,19 +5194,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4965,19 +5214,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4985,19 +5234,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5005,19 +5254,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5025,19 +5274,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5045,19 +5294,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5065,19 +5314,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5085,19 +5334,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5105,19 +5354,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5125,19 +5374,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5145,19 +5394,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5165,19 +5414,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5185,19 +5434,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5207,7 +5456,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5215,109 +5464,131 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>190</v>
       </c>
-      <c r="C10" t="s">
-        <v>199</v>
+      <c r="C11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
